--- a/data/survey_data/raw_data/sat_data2a.xlsx
+++ b/data/survey_data/raw_data/sat_data2a.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>Timestamp</t>
   </si>
@@ -257,6 +257,102 @@
   </si>
   <si>
     <t>Let us do Exercise 8.</t>
+  </si>
+  <si>
+    <t>What kind of compassion do you feel towards your childhood self? Is that tender compassion which is an immediate sympathy towards the child, or is that foresighted compassion where you help to make the child grow for the long term?</t>
+  </si>
+  <si>
+    <t>Great job! You are already ahead of many people by being compassionate! Let's take a step further by practicing some SAT protocols.</t>
+  </si>
+  <si>
+    <t>Do you have that motivation that you should help them?</t>
+  </si>
+  <si>
+    <t>I would like to hear more from you. Do you think they do not deserve any help, or you don't feel compassion for them?</t>
+  </si>
+  <si>
+    <t>Thank you so far. With the tender compassion that you have developed towards your childhood self,  let's try to do exercise 15 (to change perspective).</t>
+  </si>
+  <si>
+    <t>Now close your eyes, and imagine that you're part of that vulnerable community. Do you think that you deserve other people's help?</t>
+  </si>
+  <si>
+    <t>Now you can move back to your own self. Do you have the feeling that you should help the vulnerable community?</t>
+  </si>
+  <si>
+    <t>Amazing! It is great that you have shown the trait of foresighted compassion! Would you like to try some other protocols to see how are we doing?</t>
+  </si>
+  <si>
+    <t>Let us do Exercise 8. This is really heloful!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of compassion do you tend to express towards your childhood self? Do you think it is tender compassion, an immediate response, or foresighted compassion, where you aim for long-term effects. </t>
+  </si>
+  <si>
+    <t>That's a great start! You are advancing better than average with your compassion skills. Let's progress by practicing with SAT protocols.</t>
+  </si>
+  <si>
+    <t>You tend to express tender compassion towards your childhood self. As an exercise, practice conveying compassion towards a vulnerable group of people. Close your eyes, and imagine that vulnerable group. If you need help with this exercise, go to AUC.</t>
+  </si>
+  <si>
+    <t>Why do you feel that way? Do you believe that they are undeserving, or are you personally unable to direct your compassion to them?</t>
+  </si>
+  <si>
+    <t>Let's dive deep into your childhood self, and try to develop an intimate relationship.</t>
+  </si>
+  <si>
+    <t>Let's dive deeper into this session. Exercise 15 will attempt to change your perspectives on feeling compassion. Now, proceed to this exercise with your newly developed tender compassion skills.</t>
+  </si>
+  <si>
+    <t>Close your eyes, now put your shoes in that vulnerable group. Do you feel deserving of help from others?</t>
+  </si>
+  <si>
+    <t>There must have been an issue such as poverty that has led those people to their circumstance today. Try to picture the situations that other people have to live in. Now, do you feel that your feelings have changed? Do you want to help them?</t>
+  </si>
+  <si>
+    <t>Focus on your thoughts. Do you think you should help that vulnerable group of people now?</t>
+  </si>
+  <si>
+    <t>Sounds good! Since you believe that you have the foresighted compassion trait, is it okay to ask more questions to see our progress?</t>
+  </si>
+  <si>
+    <t>Let's start Exercise 8.</t>
+  </si>
+  <si>
+    <t>hiiiiii</t>
+  </si>
+  <si>
+    <t>What type of compassion do you feel towards your &lt;childhood self&gt;? Is it &lt;tender compassion&gt; which is an immediate sympathy towards the child, or is it &lt;foresighted compassion&gt;, where you help to make the child grow for the long term?</t>
+  </si>
+  <si>
+    <t>Good job! You are well ahead of many people by showing traits of compassion. Next, let us practice some &lt;SAT protocols&gt;.</t>
+  </si>
+  <si>
+    <t>You have shown &lt;tender compassion&gt; towards the &lt;childhood self&gt;. Next, shift that compassion and project that exact same feeling towards a vulnerable community. Close your eyes, and think about a vulnerable community.</t>
+  </si>
+  <si>
+    <t>Do you feel like you are ready to help them?</t>
+  </si>
+  <si>
+    <t>Let us take a step back, and try to form an intimate relationship with your &lt;childhood self&gt;.</t>
+  </si>
+  <si>
+    <t>You have already developed tender compassion towards your &lt;childhood self&gt;, to change perspective, let's do exercise 15.</t>
+  </si>
+  <si>
+    <t>Now close your eyes, and imagine that you're part of that vulnerable community. Feel the pain. Feel the worries. Do you feel that you deserve some help?</t>
+  </si>
+  <si>
+    <t>They ended up in their vulnerable situation now due to various reasons. Think deeper. Do you feel like helping them?</t>
+  </si>
+  <si>
+    <t>Now let's come back to your own self. Do you feel that you should help the vulnerable community now?</t>
+  </si>
+  <si>
+    <t>Good! If you believe that you have shown the trait of &lt;foresighted compassion&gt;, is it okay if we contiue with some protocols to see how are we doing?</t>
+  </si>
+  <si>
+    <t>Let us do  &lt;Exercise 8&gt; next.</t>
   </si>
 </sst>
 </file>
@@ -830,6 +926,132 @@
         <v>81</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>44762.014212696755</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>44762.704150868056</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>44765.69811673611</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
